--- a/SecretFormula.xlsx
+++ b/SecretFormula.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\StockEstimator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\StockEstimator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,7 @@
   <sheets>
     <sheet name="linear regression" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>silna korelacja</t>
-  </si>
   <si>
     <t>Price [USD]</t>
   </si>
@@ -61,6 +54,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>strong correlation</t>
   </si>
 </sst>
 </file>
@@ -147,12 +143,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -211,7 +207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -687,7 +682,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -806,7 +800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1517,7 +1510,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1535,31 +1534,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Statystyka"/>
-      <sheetName val="Algebra macierzy"/>
-      <sheetName val="Prosty model regresji"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>C [PLN]</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,6 +1612,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1673,6 +1664,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1828,203 +1836,203 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="21.7109375" customWidth="1"/>
-    <col min="258" max="259" width="14.85546875" customWidth="1"/>
-    <col min="261" max="261" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="21.7109375" customWidth="1"/>
-    <col min="514" max="515" width="14.85546875" customWidth="1"/>
-    <col min="517" max="517" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="21.7109375" customWidth="1"/>
-    <col min="770" max="771" width="14.85546875" customWidth="1"/>
-    <col min="773" max="773" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="21.7109375" customWidth="1"/>
-    <col min="1026" max="1027" width="14.85546875" customWidth="1"/>
-    <col min="1029" max="1029" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="21.7109375" customWidth="1"/>
-    <col min="1282" max="1283" width="14.85546875" customWidth="1"/>
-    <col min="1285" max="1285" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="21.7109375" customWidth="1"/>
-    <col min="1538" max="1539" width="14.85546875" customWidth="1"/>
-    <col min="1541" max="1541" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="21.7109375" customWidth="1"/>
-    <col min="1794" max="1795" width="14.85546875" customWidth="1"/>
-    <col min="1797" max="1797" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="21.7109375" customWidth="1"/>
-    <col min="2050" max="2051" width="14.85546875" customWidth="1"/>
-    <col min="2053" max="2053" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="21.7109375" customWidth="1"/>
-    <col min="2306" max="2307" width="14.85546875" customWidth="1"/>
-    <col min="2309" max="2309" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="21.7109375" customWidth="1"/>
-    <col min="2562" max="2563" width="14.85546875" customWidth="1"/>
-    <col min="2565" max="2565" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="21.7109375" customWidth="1"/>
-    <col min="2818" max="2819" width="14.85546875" customWidth="1"/>
-    <col min="2821" max="2821" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="21.7109375" customWidth="1"/>
-    <col min="3074" max="3075" width="14.85546875" customWidth="1"/>
-    <col min="3077" max="3077" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="21.7109375" customWidth="1"/>
-    <col min="3330" max="3331" width="14.85546875" customWidth="1"/>
-    <col min="3333" max="3333" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="21.7109375" customWidth="1"/>
-    <col min="3586" max="3587" width="14.85546875" customWidth="1"/>
-    <col min="3589" max="3589" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="21.7109375" customWidth="1"/>
-    <col min="3842" max="3843" width="14.85546875" customWidth="1"/>
-    <col min="3845" max="3845" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="21.7109375" customWidth="1"/>
-    <col min="4098" max="4099" width="14.85546875" customWidth="1"/>
-    <col min="4101" max="4101" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="21.7109375" customWidth="1"/>
-    <col min="4354" max="4355" width="14.85546875" customWidth="1"/>
-    <col min="4357" max="4357" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="21.7109375" customWidth="1"/>
-    <col min="4610" max="4611" width="14.85546875" customWidth="1"/>
-    <col min="4613" max="4613" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="21.7109375" customWidth="1"/>
-    <col min="4866" max="4867" width="14.85546875" customWidth="1"/>
-    <col min="4869" max="4869" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="21.7109375" customWidth="1"/>
-    <col min="5122" max="5123" width="14.85546875" customWidth="1"/>
-    <col min="5125" max="5125" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="21.7109375" customWidth="1"/>
-    <col min="5378" max="5379" width="14.85546875" customWidth="1"/>
-    <col min="5381" max="5381" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="21.7109375" customWidth="1"/>
-    <col min="5634" max="5635" width="14.85546875" customWidth="1"/>
-    <col min="5637" max="5637" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="21.7109375" customWidth="1"/>
-    <col min="5890" max="5891" width="14.85546875" customWidth="1"/>
-    <col min="5893" max="5893" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="21.7109375" customWidth="1"/>
-    <col min="6146" max="6147" width="14.85546875" customWidth="1"/>
-    <col min="6149" max="6149" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="21.7109375" customWidth="1"/>
-    <col min="6402" max="6403" width="14.85546875" customWidth="1"/>
-    <col min="6405" max="6405" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="21.7109375" customWidth="1"/>
-    <col min="6658" max="6659" width="14.85546875" customWidth="1"/>
-    <col min="6661" max="6661" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="21.7109375" customWidth="1"/>
-    <col min="6914" max="6915" width="14.85546875" customWidth="1"/>
-    <col min="6917" max="6917" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="21.7109375" customWidth="1"/>
-    <col min="7170" max="7171" width="14.85546875" customWidth="1"/>
-    <col min="7173" max="7173" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="21.7109375" customWidth="1"/>
-    <col min="7426" max="7427" width="14.85546875" customWidth="1"/>
-    <col min="7429" max="7429" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="21.7109375" customWidth="1"/>
-    <col min="7682" max="7683" width="14.85546875" customWidth="1"/>
-    <col min="7685" max="7685" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="21.7109375" customWidth="1"/>
-    <col min="7938" max="7939" width="14.85546875" customWidth="1"/>
-    <col min="7941" max="7941" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="21.7109375" customWidth="1"/>
-    <col min="8194" max="8195" width="14.85546875" customWidth="1"/>
-    <col min="8197" max="8197" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="21.7109375" customWidth="1"/>
-    <col min="8450" max="8451" width="14.85546875" customWidth="1"/>
-    <col min="8453" max="8453" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="21.7109375" customWidth="1"/>
-    <col min="8706" max="8707" width="14.85546875" customWidth="1"/>
-    <col min="8709" max="8709" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="21.7109375" customWidth="1"/>
-    <col min="8962" max="8963" width="14.85546875" customWidth="1"/>
-    <col min="8965" max="8965" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="21.7109375" customWidth="1"/>
-    <col min="9218" max="9219" width="14.85546875" customWidth="1"/>
-    <col min="9221" max="9221" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="21.7109375" customWidth="1"/>
-    <col min="9474" max="9475" width="14.85546875" customWidth="1"/>
-    <col min="9477" max="9477" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="21.7109375" customWidth="1"/>
-    <col min="9730" max="9731" width="14.85546875" customWidth="1"/>
-    <col min="9733" max="9733" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="21.7109375" customWidth="1"/>
-    <col min="9986" max="9987" width="14.85546875" customWidth="1"/>
-    <col min="9989" max="9989" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="21.7109375" customWidth="1"/>
-    <col min="10242" max="10243" width="14.85546875" customWidth="1"/>
-    <col min="10245" max="10245" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="21.7109375" customWidth="1"/>
-    <col min="10498" max="10499" width="14.85546875" customWidth="1"/>
-    <col min="10501" max="10501" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="21.7109375" customWidth="1"/>
-    <col min="10754" max="10755" width="14.85546875" customWidth="1"/>
-    <col min="10757" max="10757" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="21.7109375" customWidth="1"/>
-    <col min="11010" max="11011" width="14.85546875" customWidth="1"/>
-    <col min="11013" max="11013" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="21.7109375" customWidth="1"/>
-    <col min="11266" max="11267" width="14.85546875" customWidth="1"/>
-    <col min="11269" max="11269" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="21.7109375" customWidth="1"/>
-    <col min="11522" max="11523" width="14.85546875" customWidth="1"/>
-    <col min="11525" max="11525" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="21.7109375" customWidth="1"/>
-    <col min="11778" max="11779" width="14.85546875" customWidth="1"/>
-    <col min="11781" max="11781" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="21.7109375" customWidth="1"/>
-    <col min="12034" max="12035" width="14.85546875" customWidth="1"/>
-    <col min="12037" max="12037" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="21.7109375" customWidth="1"/>
-    <col min="12290" max="12291" width="14.85546875" customWidth="1"/>
-    <col min="12293" max="12293" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="21.7109375" customWidth="1"/>
-    <col min="12546" max="12547" width="14.85546875" customWidth="1"/>
-    <col min="12549" max="12549" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="21.7109375" customWidth="1"/>
-    <col min="12802" max="12803" width="14.85546875" customWidth="1"/>
-    <col min="12805" max="12805" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="21.7109375" customWidth="1"/>
-    <col min="13058" max="13059" width="14.85546875" customWidth="1"/>
-    <col min="13061" max="13061" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="21.7109375" customWidth="1"/>
-    <col min="13314" max="13315" width="14.85546875" customWidth="1"/>
-    <col min="13317" max="13317" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="21.7109375" customWidth="1"/>
-    <col min="13570" max="13571" width="14.85546875" customWidth="1"/>
-    <col min="13573" max="13573" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="21.7109375" customWidth="1"/>
-    <col min="13826" max="13827" width="14.85546875" customWidth="1"/>
-    <col min="13829" max="13829" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="21.7109375" customWidth="1"/>
-    <col min="14082" max="14083" width="14.85546875" customWidth="1"/>
-    <col min="14085" max="14085" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="21.7109375" customWidth="1"/>
-    <col min="14338" max="14339" width="14.85546875" customWidth="1"/>
-    <col min="14341" max="14341" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="21.7109375" customWidth="1"/>
-    <col min="14594" max="14595" width="14.85546875" customWidth="1"/>
-    <col min="14597" max="14597" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="21.7109375" customWidth="1"/>
-    <col min="14850" max="14851" width="14.85546875" customWidth="1"/>
-    <col min="14853" max="14853" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="21.7109375" customWidth="1"/>
-    <col min="15106" max="15107" width="14.85546875" customWidth="1"/>
-    <col min="15109" max="15109" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="21.7109375" customWidth="1"/>
-    <col min="15362" max="15363" width="14.85546875" customWidth="1"/>
-    <col min="15365" max="15365" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="21.7109375" customWidth="1"/>
-    <col min="15618" max="15619" width="14.85546875" customWidth="1"/>
-    <col min="15621" max="15621" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="21.7109375" customWidth="1"/>
-    <col min="15874" max="15875" width="14.85546875" customWidth="1"/>
-    <col min="15877" max="15877" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="21.7109375" customWidth="1"/>
-    <col min="16130" max="16131" width="14.85546875" customWidth="1"/>
-    <col min="16133" max="16133" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="3" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="21.75" customWidth="1"/>
+    <col min="258" max="259" width="14.875" customWidth="1"/>
+    <col min="261" max="261" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="21.75" customWidth="1"/>
+    <col min="514" max="515" width="14.875" customWidth="1"/>
+    <col min="517" max="517" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="21.75" customWidth="1"/>
+    <col min="770" max="771" width="14.875" customWidth="1"/>
+    <col min="773" max="773" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="21.75" customWidth="1"/>
+    <col min="1026" max="1027" width="14.875" customWidth="1"/>
+    <col min="1029" max="1029" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="21.75" customWidth="1"/>
+    <col min="1282" max="1283" width="14.875" customWidth="1"/>
+    <col min="1285" max="1285" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="21.75" customWidth="1"/>
+    <col min="1538" max="1539" width="14.875" customWidth="1"/>
+    <col min="1541" max="1541" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="21.75" customWidth="1"/>
+    <col min="1794" max="1795" width="14.875" customWidth="1"/>
+    <col min="1797" max="1797" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="21.75" customWidth="1"/>
+    <col min="2050" max="2051" width="14.875" customWidth="1"/>
+    <col min="2053" max="2053" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="21.75" customWidth="1"/>
+    <col min="2306" max="2307" width="14.875" customWidth="1"/>
+    <col min="2309" max="2309" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="21.75" customWidth="1"/>
+    <col min="2562" max="2563" width="14.875" customWidth="1"/>
+    <col min="2565" max="2565" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="21.75" customWidth="1"/>
+    <col min="2818" max="2819" width="14.875" customWidth="1"/>
+    <col min="2821" max="2821" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="21.75" customWidth="1"/>
+    <col min="3074" max="3075" width="14.875" customWidth="1"/>
+    <col min="3077" max="3077" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="21.75" customWidth="1"/>
+    <col min="3330" max="3331" width="14.875" customWidth="1"/>
+    <col min="3333" max="3333" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="21.75" customWidth="1"/>
+    <col min="3586" max="3587" width="14.875" customWidth="1"/>
+    <col min="3589" max="3589" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="21.75" customWidth="1"/>
+    <col min="3842" max="3843" width="14.875" customWidth="1"/>
+    <col min="3845" max="3845" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="21.75" customWidth="1"/>
+    <col min="4098" max="4099" width="14.875" customWidth="1"/>
+    <col min="4101" max="4101" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="21.75" customWidth="1"/>
+    <col min="4354" max="4355" width="14.875" customWidth="1"/>
+    <col min="4357" max="4357" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="21.75" customWidth="1"/>
+    <col min="4610" max="4611" width="14.875" customWidth="1"/>
+    <col min="4613" max="4613" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="21.75" customWidth="1"/>
+    <col min="4866" max="4867" width="14.875" customWidth="1"/>
+    <col min="4869" max="4869" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="21.75" customWidth="1"/>
+    <col min="5122" max="5123" width="14.875" customWidth="1"/>
+    <col min="5125" max="5125" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="21.75" customWidth="1"/>
+    <col min="5378" max="5379" width="14.875" customWidth="1"/>
+    <col min="5381" max="5381" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="21.75" customWidth="1"/>
+    <col min="5634" max="5635" width="14.875" customWidth="1"/>
+    <col min="5637" max="5637" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="21.75" customWidth="1"/>
+    <col min="5890" max="5891" width="14.875" customWidth="1"/>
+    <col min="5893" max="5893" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="21.75" customWidth="1"/>
+    <col min="6146" max="6147" width="14.875" customWidth="1"/>
+    <col min="6149" max="6149" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="21.75" customWidth="1"/>
+    <col min="6402" max="6403" width="14.875" customWidth="1"/>
+    <col min="6405" max="6405" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="21.75" customWidth="1"/>
+    <col min="6658" max="6659" width="14.875" customWidth="1"/>
+    <col min="6661" max="6661" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="21.75" customWidth="1"/>
+    <col min="6914" max="6915" width="14.875" customWidth="1"/>
+    <col min="6917" max="6917" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="21.75" customWidth="1"/>
+    <col min="7170" max="7171" width="14.875" customWidth="1"/>
+    <col min="7173" max="7173" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="21.75" customWidth="1"/>
+    <col min="7426" max="7427" width="14.875" customWidth="1"/>
+    <col min="7429" max="7429" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="21.75" customWidth="1"/>
+    <col min="7682" max="7683" width="14.875" customWidth="1"/>
+    <col min="7685" max="7685" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="21.75" customWidth="1"/>
+    <col min="7938" max="7939" width="14.875" customWidth="1"/>
+    <col min="7941" max="7941" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="21.75" customWidth="1"/>
+    <col min="8194" max="8195" width="14.875" customWidth="1"/>
+    <col min="8197" max="8197" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="21.75" customWidth="1"/>
+    <col min="8450" max="8451" width="14.875" customWidth="1"/>
+    <col min="8453" max="8453" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="21.75" customWidth="1"/>
+    <col min="8706" max="8707" width="14.875" customWidth="1"/>
+    <col min="8709" max="8709" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="21.75" customWidth="1"/>
+    <col min="8962" max="8963" width="14.875" customWidth="1"/>
+    <col min="8965" max="8965" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="21.75" customWidth="1"/>
+    <col min="9218" max="9219" width="14.875" customWidth="1"/>
+    <col min="9221" max="9221" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="21.75" customWidth="1"/>
+    <col min="9474" max="9475" width="14.875" customWidth="1"/>
+    <col min="9477" max="9477" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="21.75" customWidth="1"/>
+    <col min="9730" max="9731" width="14.875" customWidth="1"/>
+    <col min="9733" max="9733" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="21.75" customWidth="1"/>
+    <col min="9986" max="9987" width="14.875" customWidth="1"/>
+    <col min="9989" max="9989" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="21.75" customWidth="1"/>
+    <col min="10242" max="10243" width="14.875" customWidth="1"/>
+    <col min="10245" max="10245" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="21.75" customWidth="1"/>
+    <col min="10498" max="10499" width="14.875" customWidth="1"/>
+    <col min="10501" max="10501" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="21.75" customWidth="1"/>
+    <col min="10754" max="10755" width="14.875" customWidth="1"/>
+    <col min="10757" max="10757" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="21.75" customWidth="1"/>
+    <col min="11010" max="11011" width="14.875" customWidth="1"/>
+    <col min="11013" max="11013" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="21.75" customWidth="1"/>
+    <col min="11266" max="11267" width="14.875" customWidth="1"/>
+    <col min="11269" max="11269" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="21.75" customWidth="1"/>
+    <col min="11522" max="11523" width="14.875" customWidth="1"/>
+    <col min="11525" max="11525" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="21.75" customWidth="1"/>
+    <col min="11778" max="11779" width="14.875" customWidth="1"/>
+    <col min="11781" max="11781" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="21.75" customWidth="1"/>
+    <col min="12034" max="12035" width="14.875" customWidth="1"/>
+    <col min="12037" max="12037" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="21.75" customWidth="1"/>
+    <col min="12290" max="12291" width="14.875" customWidth="1"/>
+    <col min="12293" max="12293" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="21.75" customWidth="1"/>
+    <col min="12546" max="12547" width="14.875" customWidth="1"/>
+    <col min="12549" max="12549" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="21.75" customWidth="1"/>
+    <col min="12802" max="12803" width="14.875" customWidth="1"/>
+    <col min="12805" max="12805" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="21.75" customWidth="1"/>
+    <col min="13058" max="13059" width="14.875" customWidth="1"/>
+    <col min="13061" max="13061" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="21.75" customWidth="1"/>
+    <col min="13314" max="13315" width="14.875" customWidth="1"/>
+    <col min="13317" max="13317" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="21.75" customWidth="1"/>
+    <col min="13570" max="13571" width="14.875" customWidth="1"/>
+    <col min="13573" max="13573" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="21.75" customWidth="1"/>
+    <col min="13826" max="13827" width="14.875" customWidth="1"/>
+    <col min="13829" max="13829" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="21.75" customWidth="1"/>
+    <col min="14082" max="14083" width="14.875" customWidth="1"/>
+    <col min="14085" max="14085" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="21.75" customWidth="1"/>
+    <col min="14338" max="14339" width="14.875" customWidth="1"/>
+    <col min="14341" max="14341" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="21.75" customWidth="1"/>
+    <col min="14594" max="14595" width="14.875" customWidth="1"/>
+    <col min="14597" max="14597" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="21.75" customWidth="1"/>
+    <col min="14850" max="14851" width="14.875" customWidth="1"/>
+    <col min="14853" max="14853" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="21.75" customWidth="1"/>
+    <col min="15106" max="15107" width="14.875" customWidth="1"/>
+    <col min="15109" max="15109" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="21.75" customWidth="1"/>
+    <col min="15362" max="15363" width="14.875" customWidth="1"/>
+    <col min="15365" max="15365" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="21.75" customWidth="1"/>
+    <col min="15618" max="15619" width="14.875" customWidth="1"/>
+    <col min="15621" max="15621" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="21.75" customWidth="1"/>
+    <col min="15874" max="15875" width="14.875" customWidth="1"/>
+    <col min="15877" max="15877" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="21.75" customWidth="1"/>
+    <col min="16130" max="16131" width="14.875" customWidth="1"/>
+    <col min="16133" max="16133" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,10 +2043,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2056,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>53.790000999999997</v>
       </c>
     </row>
@@ -2059,7 +2067,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>54</v>
       </c>
     </row>
@@ -2070,7 +2078,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>54.299999</v>
       </c>
     </row>
@@ -2081,7 +2089,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>55.060001</v>
       </c>
     </row>
@@ -2092,7 +2100,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>53.93</v>
       </c>
     </row>
@@ -2103,7 +2111,7 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>54.099997999999999</v>
       </c>
     </row>
@@ -2114,7 +2122,7 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>55.290000999999997</v>
       </c>
     </row>
@@ -2125,7 +2133,7 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>54.990001999999997</v>
       </c>
     </row>
@@ -2136,7 +2144,7 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>54.509998000000003</v>
       </c>
     </row>
@@ -2147,7 +2155,7 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>55.009998000000003</v>
       </c>
     </row>
@@ -2158,7 +2166,7 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>54.009998000000003</v>
       </c>
     </row>
@@ -2169,7 +2177,7 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>53.68</v>
       </c>
     </row>
@@ -2180,7 +2188,7 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>55.09</v>
       </c>
     </row>
@@ -2191,7 +2199,7 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>54.759998000000003</v>
       </c>
     </row>
@@ -2202,7 +2210,7 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>55.529998999999997</v>
       </c>
     </row>
@@ -2213,7 +2221,7 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>54.029998999999997</v>
       </c>
     </row>
@@ -2224,7 +2232,7 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>54.23</v>
       </c>
     </row>
@@ -2235,11 +2243,11 @@
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>54.5</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="6">
         <f>AVERAGE(B3:B45)</f>
@@ -2257,11 +2265,11 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>55.439999</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="6">
         <f>STDEV(B3:B45)</f>
@@ -2279,18 +2287,18 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>55.43</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="6">
         <f>CORREL(B3:B45,C3:C45)</f>
         <v>-0.69192783477324427</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,11 +2308,11 @@
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>54.98</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="6">
         <f>SLOPE(C3:C45,B3:B45)</f>
@@ -2318,11 +2326,11 @@
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>56.060001</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6">
         <f>INTERCEPT(C3:C45,B3:B45)</f>
@@ -2336,7 +2344,7 @@
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>56.290000999999997</v>
       </c>
     </row>
@@ -2347,7 +2355,7 @@
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>55.419998</v>
       </c>
     </row>
@@ -2358,7 +2366,7 @@
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>53.389999000000003</v>
       </c>
     </row>
@@ -2369,7 +2377,7 @@
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>54.540000999999997</v>
       </c>
     </row>
@@ -2380,7 +2388,7 @@
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>53.639999000000003</v>
       </c>
     </row>
@@ -2391,7 +2399,7 @@
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>52.07</v>
       </c>
     </row>
@@ -2402,7 +2410,7 @@
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>52.150002000000001</v>
       </c>
     </row>
@@ -2413,7 +2421,7 @@
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>51.459999000000003</v>
       </c>
     </row>
@@ -2424,7 +2432,7 @@
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>52.060001</v>
       </c>
     </row>
@@ -2435,7 +2443,7 @@
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>51.299999</v>
       </c>
     </row>
@@ -2446,13 +2454,13 @@
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>51.57</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="E35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2461,14 +2469,14 @@
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>50.34</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,13 +2486,13 @@
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>50.060001</v>
       </c>
       <c r="E37" s="5">
         <v>55</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f>E37*F$23+F$24</f>
         <v>50.038787220930232</v>
       </c>
@@ -2496,13 +2504,13 @@
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>49.099997999999999</v>
       </c>
       <c r="E38" s="5">
         <v>250</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <f>E38*F$23+F$24</f>
         <v>30.047901517970406</v>
       </c>
@@ -2514,7 +2522,7 @@
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>50.299999</v>
       </c>
     </row>
@@ -2525,7 +2533,7 @@
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>51.259998000000003</v>
       </c>
     </row>
@@ -2536,7 +2544,7 @@
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>51.650002000000001</v>
       </c>
     </row>
@@ -2547,7 +2555,7 @@
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>51.549999</v>
       </c>
     </row>
@@ -2558,7 +2566,7 @@
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>51.02</v>
       </c>
     </row>
@@ -2569,7 +2577,7 @@
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>51.25</v>
       </c>
     </row>
@@ -2580,7 +2588,7 @@
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>54</v>
       </c>
     </row>
